--- a/production_public/assets/v2/samples/organization_excel_registration.xlsx
+++ b/production_public/assets/v2/samples/organization_excel_registration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srvro\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\htdocs\AMG\plus_db\client_dashboards\version_one\plus_database\production_public\assets\v2\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AAC7D6F-AA94-4260-ADD7-93579A5D1395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DD2AE7-9B20-4506-A664-2F490F9B7D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="1170" windowWidth="20505" windowHeight="15030" xr2:uid="{B1994BF0-3E6A-4693-B3A0-9FEB47ED215D}"/>
+    <workbookView xWindow="3120" yWindow="1170" windowWidth="20505" windowHeight="15030" xr2:uid="{B1994BF0-3E6A-4693-B3A0-9FEB47ED215D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,9 +69,6 @@
     <t>Main Branch</t>
   </si>
   <si>
-    <t>Registered Member</t>
-  </si>
-  <si>
     <t>Group Supers</t>
   </si>
   <si>
@@ -172,6 +169,9 @@
   </si>
   <si>
     <t>0201122335</t>
+  </si>
+  <si>
+    <t>Membership</t>
   </si>
 </sst>
 </file>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B89664CC-14C1-40EC-96F1-D6B03513077C}">
   <dimension ref="A1:Y3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,34 +597,34 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>0</v>
@@ -657,24 +657,24 @@
         <v>9</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="W1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="Y1" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>11</v>
@@ -685,13 +685,13 @@
         <v>12</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G2" s="5">
         <v>36754</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -699,79 +699,79 @@
         <v>13</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
       <c r="V2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3" s="5">
         <v>34869</v>
       </c>
       <c r="H3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="M3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
